--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T15:04:17+00:00</t>
+    <t>2024-12-18T18:27:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:27:33+00:00</t>
+    <t>2025-05-13T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T18:56:15+00:00</t>
+    <t>2025-05-20T15:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T15:08:54+00:00</t>
+    <t>2025-05-21T20:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T20:08:08+00:00</t>
+    <t>2025-05-27T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:50:40+00:00</t>
+    <t>2025-05-27T17:52:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:52:17+00:00</t>
+    <t>2025-05-29T13:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T13:27:52+00:00</t>
+    <t>2025-06-12T13:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:19:08+00:00</t>
+    <t>2025-06-12T13:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:42:51+00:00</t>
+    <t>2025-08-13T14:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:50:19+00:00</t>
+    <t>2025-08-20T13:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T13:12:16+00:00</t>
+    <t>2025-08-29T12:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-data-collection-method.xlsx
+++ b/docs/CodeSystem-data-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
